--- a/data/outputs/能源化工元源数据文件_elsevier/27（2）GREEN CHEMISTRY.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/27（2）GREEN CHEMISTRY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS59"/>
+  <dimension ref="A1:BU59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -937,6 +947,12 @@
           <t>2-s2.0-84936773215</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1140,6 +1156,12 @@
           <t>2-s2.0-84936076843</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1363,6 +1385,12 @@
           <t>2-s2.0-84936803166</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1578,6 +1606,12 @@
           <t>2-s2.0-84936804329</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1795,6 +1829,12 @@
           <t>2-s2.0-84936803164</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2010,6 +2050,12 @@
           <t>2-s2.0-84936817535</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2227,6 +2273,12 @@
           <t>2-s2.0-84936797190</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2442,6 +2494,12 @@
           <t>2-s2.0-84938509313</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2653,6 +2711,12 @@
           <t>2-s2.0-84938488379</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2862,6 +2926,12 @@
           <t>2-s2.0-84938518038</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3077,6 +3147,12 @@
           <t>2-s2.0-84938492759</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3286,6 +3362,12 @@
           <t>2-s2.0-84938538044</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3503,6 +3585,12 @@
           <t>2-s2.0-84938503009</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3718,6 +3806,12 @@
           <t>2-s2.0-84938516742</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3933,6 +4027,12 @@
           <t>2-s2.0-84938520368</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4148,6 +4248,12 @@
           <t>2-s2.0-84938802799</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4363,6 +4469,12 @@
           <t>2-s2.0-84938513613</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4578,6 +4690,12 @@
           <t>2-s2.0-84938534701</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4789,6 +4907,12 @@
           <t>2-s2.0-84938490460</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5004,6 +5128,12 @@
           <t>2-s2.0-84938486603</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5219,6 +5349,12 @@
           <t>2-s2.0-84938513679</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5434,6 +5570,12 @@
           <t>2-s2.0-84938501050</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5653,6 +5795,12 @@
           <t>2-s2.0-84938530787</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5868,6 +6016,12 @@
           <t>2-s2.0-84938543581</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6075,6 +6229,12 @@
           <t>2-s2.0-84938499477</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6286,6 +6446,12 @@
           <t>2-s2.0-84938516332</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6503,6 +6669,12 @@
           <t>2-s2.0-84940828186</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6714,6 +6886,12 @@
           <t>2-s2.0-84940886510</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6923,6 +7101,12 @@
           <t>2-s2.0-84940851749</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7130,6 +7314,12 @@
           <t>2-s2.0-84940880843</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7339,6 +7529,12 @@
           <t>2-s2.0-84940829736</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7554,6 +7750,12 @@
           <t>2-s2.0-84940853528</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7773,6 +7975,12 @@
           <t>2-s2.0-84940842549</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7994,6 +8202,12 @@
           <t>2-s2.0-84940875416</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8211,6 +8425,12 @@
           <t>2-s2.0-84940887624</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8426,6 +8646,12 @@
           <t>2-s2.0-84942895938</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8641,6 +8867,12 @@
           <t>2-s2.0-84942903224</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8848,6 +9080,12 @@
           <t>2-s2.0-84942860629</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9057,6 +9295,12 @@
           <t>2-s2.0-84942844929</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9274,6 +9518,12 @@
           <t>2-s2.0-84942850339</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9481,6 +9731,12 @@
           <t>2-s2.0-84946215608</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9696,6 +9952,12 @@
           <t>2-s2.0-84946129635</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9915,6 +10177,12 @@
           <t>2-s2.0-84946145665</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10134,6 +10402,12 @@
           <t>2-s2.0-84946238289</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10349,6 +10623,12 @@
           <t>2-s2.0-84946594092</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10570,6 +10850,12 @@
           <t>2-s2.0-84946197481</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10787,6 +11073,12 @@
           <t>2-s2.0-84946595043</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11000,6 +11292,12 @@
           <t>2-s2.0-84948683513</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11211,6 +11509,12 @@
           <t>2-s2.0-84948453833</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11426,6 +11730,12 @@
           <t>2-s2.0-84948469431</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11639,6 +11949,12 @@
           <t>2-s2.0-84948467956</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11846,6 +12162,12 @@
           <t>2-s2.0-84948471575</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12061,6 +12383,12 @@
           <t>2-s2.0-84948458306</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12276,6 +12604,12 @@
           <t>2-s2.0-84948468083</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12489,6 +12823,12 @@
           <t>2-s2.0-84948708294</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12708,6 +13048,12 @@
           <t>2-s2.0-84948467678</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12922,6 +13268,12 @@
         <is>
           <t>2-s2.0-84948448400</t>
         </is>
+      </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="59">
@@ -13126,6 +13478,12 @@
           <t>2-s2.0-84948462221</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
